--- a/MyDatatable - dummytest.xlsx
+++ b/MyDatatable - dummytest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Library\Documents\UiPath\RPAProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B93DDB0-08E0-46FB-827E-5D8D8075E438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14710AFD-27F2-4978-AA39-FA6650EC22BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
